--- a/Texts/Город Сокровищ/Все персонажи/Мавайл.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Мавайл.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -157,6 +157,66 @@
   </si>
   <si>
     <t xml:space="preserve"> Îàäåýòû, òï [CS:N]Òîéèåìïí[CR] áôäåó âòæ\nöïñïšï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Memories of exploring with\neveryone will last a lifetime! Tee-hee!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I won\'t be able to forget the\nspectacular view from the summit, either…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s why I just can\'t stop\nexploring!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Воспоминания о путешествии со\nвсеми уже никогда не забыть! Хи-хи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> И потрясающий вид с вершины\nгоры мне тоже никогда не забудется...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Именно поэтому я никогда не\nперестану исследовать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïòðïíéîàîéÿ ï ðôóåšåòóâéé òï\nâòåíé ôçå îéëïãäà îå èàáúóû! Öé-öé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> É ðïóñÿòàýþéê âéä ò âåñšéîú\nãïñú íîå óïçå îéëïãäà îå èàáôäåóòÿ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Éíåîîï ðïüóïíô ÿ îéëïãäà îå\nðåñåòóàîô éòòìåäïâàóû!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0213.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haven\'t had a break in a while…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s great to just relax and take\nyour time once in a while! Tee-hee-hee!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Давно у меня не было отдыха...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как здорово иногда расслабиться\nи отдохнуть! Хи-хи-хи!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äàâîï ô íåîÿ îå áúìï ïóäúöà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë èäïñïâï éîïãäà ñàòòìàáéóûòÿ\né ïóäïöîôóû! Öé-öé-öé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'d love to go on an expedition\nwith everyone again sometime!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0410.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я бы с радостью сходил вместе\nсо всеми в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ áú ò ñàäïòóûý òöïäéì âíåòóå\nòï âòåíé â üëòðåäéøéý!</t>
   </si>
 </sst>
 </file>
@@ -187,7 +247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -239,11 +299,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -270,6 +350,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,20 +847,112 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="10">
         <v>79</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="11" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="4">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>63</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>38</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
